--- a/Data/GoodsDefine.xlsx
+++ b/Data/GoodsDefine.xlsx
@@ -27,12 +27,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>ID</t>
-  </si>
-  <si>
-    <t>level</t>
   </si>
   <si>
     <t>title</t>
@@ -44,46 +41,16 @@
     <t>maxPrice</t>
   </si>
   <si>
-    <t>iconResource</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
     <t>boutique_feather</t>
-  </si>
-  <si>
-    <t>boutique_feather_icon</t>
-  </si>
-  <si>
-    <t>boutique_feather吧啦吧啦吧啦吧啦吧啦吧啦</t>
   </si>
   <si>
     <t>boutique_rice</t>
   </si>
   <si>
-    <t>boutique_rice_icon</t>
-  </si>
-  <si>
-    <t>boutique_rice吧啦吧啦吧啦吧啦吧啦吧啦</t>
-  </si>
-  <si>
     <t>trophy</t>
   </si>
   <si>
-    <t>trophy_icon</t>
-  </si>
-  <si>
-    <t>trophy吧啦吧啦吧啦吧啦吧啦吧啦</t>
-  </si>
-  <si>
     <t>jerky</t>
-  </si>
-  <si>
-    <t>jerky_icon</t>
-  </si>
-  <si>
-    <t>jerky吧啦吧啦吧啦吧啦吧啦吧啦</t>
   </si>
 </sst>
 </file>
@@ -1231,23 +1198,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="4.70192307692308" customWidth="1"/>
-    <col min="2" max="2" width="5.39423076923077" customWidth="1"/>
-    <col min="3" max="3" width="14.6730769230769" customWidth="1"/>
-    <col min="5" max="5" width="7.63461538461539" customWidth="1"/>
-    <col min="6" max="6" width="19.5961538461538" customWidth="1"/>
-    <col min="7" max="7" width="80.1153846153846" customWidth="1"/>
+    <col min="2" max="2" width="14.6730769230769" customWidth="1"/>
+    <col min="4" max="4" width="12.0769230769231" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,106 +1224,61 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C2">
+        <v>200</v>
+      </c>
+      <c r="D2">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C3">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>350</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1">
-        <v>24</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s">
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-      <c r="E2">
-        <v>600</v>
-      </c>
-      <c r="F2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3">
+      <c r="C5">
         <v>50</v>
       </c>
-      <c r="E3">
-        <v>300</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1">
-        <v>26</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4">
-        <v>100</v>
-      </c>
-      <c r="E4">
-        <v>350</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1">
-        <v>27</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
       <c r="D5">
-        <v>50</v>
-      </c>
-      <c r="E5">
         <v>250</v>
-      </c>
-      <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Data/GoodsDefine.xlsx
+++ b/Data/GoodsDefine.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13160"/>
+    <workbookView windowWidth="20980" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>ID</t>
   </si>
@@ -35,22 +35,70 @@
     <t>title</t>
   </si>
   <si>
-    <t>minPrice</t>
-  </si>
-  <si>
-    <t>maxPrice</t>
-  </si>
-  <si>
-    <t>boutique_feather</t>
-  </si>
-  <si>
-    <t>boutique_rice</t>
-  </si>
-  <si>
-    <t>trophy</t>
-  </si>
-  <si>
-    <t>jerky</t>
+    <t>hungry</t>
+  </si>
+  <si>
+    <t>property1.type</t>
+  </si>
+  <si>
+    <t>property1.value</t>
+  </si>
+  <si>
+    <t>property1.floatFactor</t>
+  </si>
+  <si>
+    <t>property2.type</t>
+  </si>
+  <si>
+    <t>property2.value</t>
+  </si>
+  <si>
+    <t>property2.floatFactor</t>
+  </si>
+  <si>
+    <t>property3.type</t>
+  </si>
+  <si>
+    <t>property3.value</t>
+  </si>
+  <si>
+    <t>property3.floatFactor</t>
+  </si>
+  <si>
+    <t>priceFloatFactor</t>
+  </si>
+  <si>
+    <t>胡萝卜须</t>
+  </si>
+  <si>
+    <t>番茄炒西红柿</t>
+  </si>
+  <si>
+    <t>蔬菜杂烩</t>
+  </si>
+  <si>
+    <t>气泡水</t>
+  </si>
+  <si>
+    <t>黑色汽水</t>
+  </si>
+  <si>
+    <t>鸡毛大白菜</t>
+  </si>
+  <si>
+    <t>玉米</t>
+  </si>
+  <si>
+    <t>甘蔗</t>
+  </si>
+  <si>
+    <t>黄瓜</t>
+  </si>
+  <si>
+    <t>地薯</t>
+  </si>
+  <si>
+    <t>土豆</t>
   </si>
 </sst>
 </file>
@@ -1198,87 +1246,464 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="4.70192307692308" customWidth="1"/>
-    <col min="2" max="2" width="14.6730769230769" customWidth="1"/>
-    <col min="4" max="4" width="12.0769230769231" customWidth="1"/>
+    <col min="2" max="2" width="13.4326923076923" customWidth="1"/>
+    <col min="3" max="4" width="14.5384615384615" customWidth="1"/>
+    <col min="5" max="5" width="14.7884615384615" customWidth="1"/>
+    <col min="6" max="6" width="20.3365384615385" customWidth="1"/>
+    <col min="7" max="7" width="13.3076923076923" customWidth="1"/>
+    <col min="8" max="8" width="14.2980769230769" customWidth="1"/>
+    <col min="9" max="9" width="20.0961538461538" customWidth="1"/>
+    <col min="10" max="10" width="13.4230769230769" customWidth="1"/>
+    <col min="11" max="11" width="14.6730769230769" customWidth="1"/>
+    <col min="12" max="12" width="19.8461538461538" customWidth="1"/>
+    <col min="13" max="13" width="15.7788461538462" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>18</v>
       </c>
       <c r="D2">
-        <v>600</v>
+        <v>17</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C3">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="D3">
-        <v>300</v>
+        <v>17</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="D4">
-        <v>350</v>
+        <v>17</v>
+      </c>
+      <c r="E4">
+        <v>7</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>2</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>17</v>
+      </c>
+      <c r="E5">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5">
         <v>7</v>
       </c>
-      <c r="C5">
-        <v>50</v>
-      </c>
-      <c r="D5">
-        <v>250</v>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>22</v>
+      </c>
+      <c r="D6">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
+        <v>3</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>3</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>23</v>
+      </c>
+      <c r="D7">
+        <v>17</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8">
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>5</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+      <c r="K8">
+        <v>4</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>17</v>
+      </c>
+      <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>5</v>
+      </c>
+      <c r="K9">
+        <v>5</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10">
+        <v>26</v>
+      </c>
+      <c r="D10">
+        <v>17</v>
+      </c>
+      <c r="E10">
+        <v>13</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>24</v>
+      </c>
+      <c r="D11">
+        <v>17</v>
+      </c>
+      <c r="E11">
+        <v>14</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11">
+        <v>5</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>17</v>
+      </c>
+      <c r="E12">
+        <v>15</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+      <c r="H12">
+        <v>20</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
